--- a/analysis/edcr/out/threshold/nickel_shift_new_20_test_results.xlsx
+++ b/analysis/edcr/out/threshold/nickel_shift_new_20_test_results.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
   <si>
     <t>Model</t>
   </si>
   <si>
+    <t>Exclude</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -86,6 +89,18 @@
   </si>
   <si>
     <t>LSTM_32_layers_predictions</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>CNNA</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>RNN</t>
   </si>
   <si>
     <t>correction</t>
@@ -461,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,501 +543,2584 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
       <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
         <v>0.5918367346938775</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.4754098360655737</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.5272727272727273</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.5918367346938775</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.4754098360655737</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.5272727272727273</v>
       </c>
-      <c r="J2">
-        <v>0.1418604651162791</v>
-      </c>
       <c r="K2">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L2">
         <v>0.5769230769230769</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.4918032786885246</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.5309734513274337</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-0.01491365777080067</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.01639344262295089</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.003700724054706339</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-0.02519893899204251</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.03448275862068981</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.007018614586512022</v>
       </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
-        <v>0.5</v>
+      <c r="C3" t="s">
+        <v>29</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
         <v>0.5918367346938775</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.4754098360655737</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.5272727272727273</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.5918367346938775</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.4754098360655737</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.5272727272727273</v>
       </c>
-      <c r="J3">
-        <v>0.1418604651162791</v>
-      </c>
       <c r="K3">
-        <v>0.6071428571428571</v>
+        <v>0.1418604651162791</v>
       </c>
       <c r="L3">
-        <v>0.5573770491803278</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="M3">
-        <v>0.5811965811965811</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="N3">
-        <v>0.01530612244897955</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="O3">
-        <v>0.08196721311475413</v>
+        <v>-0.01491365777080067</v>
       </c>
       <c r="P3">
-        <v>0.05392385392385379</v>
+        <v>0.01639344262295089</v>
       </c>
       <c r="Q3">
-        <v>0.02586206896551718</v>
+        <v>0.003700724054706339</v>
       </c>
       <c r="R3">
-        <v>0.1724137931034484</v>
+        <v>-0.02519893899204251</v>
       </c>
       <c r="S3">
-        <v>0.1022693781314468</v>
-      </c>
-      <c r="T3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>0.03448275862068981</v>
+      </c>
+      <c r="T3">
+        <v>0.007018614586512022</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.3723404255319149</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.5737704918032787</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="F4">
-        <v>0.4516129032258064</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="G4">
-        <v>0.3723404255319149</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="H4">
-        <v>0.5737704918032787</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I4">
-        <v>0.4516129032258064</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J4">
-        <v>0.1418604651162791</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K4">
-        <v>0.3859649122807017</v>
+        <v>0.1418604651162791</v>
       </c>
       <c r="L4">
-        <v>0.7213114754098361</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="M4">
-        <v>0.5028571428571428</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="N4">
-        <v>0.01362448674878686</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="O4">
-        <v>0.1475409836065574</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0512442396313364</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q4">
-        <v>0.03659147869674185</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.2571428571428572</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.113469387755102</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>1.167648353485079E-16</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="F5">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="G5">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="H5">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="I5">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="J5">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="K5">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L5">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="M5">
+        <v>0.4918032786885246</v>
+      </c>
+      <c r="N5">
+        <v>0.5309734513274337</v>
+      </c>
+      <c r="O5">
+        <v>-0.01491365777080067</v>
+      </c>
+      <c r="P5">
+        <v>0.01639344262295089</v>
+      </c>
+      <c r="Q5">
+        <v>0.003700724054706339</v>
+      </c>
+      <c r="R5">
+        <v>-0.02519893899204251</v>
+      </c>
+      <c r="S5">
+        <v>0.03448275862068981</v>
+      </c>
+      <c r="T5">
+        <v>0.007018614586512022</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="F6">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="G6">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="H6">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="I6">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="J6">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="K6">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L6">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="M6">
+        <v>0.4918032786885246</v>
+      </c>
+      <c r="N6">
+        <v>0.5309734513274337</v>
+      </c>
+      <c r="O6">
+        <v>-0.01491365777080067</v>
+      </c>
+      <c r="P6">
+        <v>0.01639344262295089</v>
+      </c>
+      <c r="Q6">
+        <v>0.003700724054706339</v>
+      </c>
+      <c r="R6">
+        <v>-0.02519893899204251</v>
+      </c>
+      <c r="S6">
+        <v>0.03448275862068981</v>
+      </c>
+      <c r="T6">
+        <v>0.007018614586512022</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="F7">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="G7">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="H7">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="I7">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="J7">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="K7">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L7">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="M7">
+        <v>0.5573770491803278</v>
+      </c>
+      <c r="N7">
+        <v>0.5811965811965811</v>
+      </c>
+      <c r="O7">
+        <v>0.01530612244897955</v>
+      </c>
+      <c r="P7">
+        <v>0.08196721311475413</v>
+      </c>
+      <c r="Q7">
+        <v>0.05392385392385379</v>
+      </c>
+      <c r="R7">
+        <v>0.02586206896551718</v>
+      </c>
+      <c r="S7">
+        <v>0.1724137931034484</v>
+      </c>
+      <c r="T7">
+        <v>0.1022693781314468</v>
+      </c>
+      <c r="U7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="F8">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="G8">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="H8">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="I8">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="J8">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="K8">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L8">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="M8">
+        <v>0.5573770491803278</v>
+      </c>
+      <c r="N8">
+        <v>0.5811965811965811</v>
+      </c>
+      <c r="O8">
+        <v>0.01530612244897955</v>
+      </c>
+      <c r="P8">
+        <v>0.08196721311475413</v>
+      </c>
+      <c r="Q8">
+        <v>0.05392385392385379</v>
+      </c>
+      <c r="R8">
+        <v>0.02586206896551718</v>
+      </c>
+      <c r="S8">
+        <v>0.1724137931034484</v>
+      </c>
+      <c r="T8">
+        <v>0.1022693781314468</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="F9">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="G9">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="H9">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="I9">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="J9">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="K9">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L9">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="M9">
+        <v>0.5409836065573771</v>
+      </c>
+      <c r="N9">
+        <v>0.5739130434782609</v>
+      </c>
+      <c r="O9">
+        <v>0.01927437641723362</v>
+      </c>
+      <c r="P9">
+        <v>0.06557377049180341</v>
+      </c>
+      <c r="Q9">
+        <v>0.04664031620553355</v>
+      </c>
+      <c r="R9">
+        <v>0.03256704980842922</v>
+      </c>
+      <c r="S9">
+        <v>0.1379310344827589</v>
+      </c>
+      <c r="T9">
+        <v>0.08845577211394293</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="F10">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="G10">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="H10">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="I10">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="J10">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="K10">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L10">
+        <v>0.5964912280701754</v>
+      </c>
+      <c r="M10">
+        <v>0.5573770491803278</v>
+      </c>
+      <c r="N10">
+        <v>0.576271186440678</v>
+      </c>
+      <c r="O10">
+        <v>0.004654493376297864</v>
+      </c>
+      <c r="P10">
+        <v>0.08196721311475413</v>
+      </c>
+      <c r="Q10">
+        <v>0.04899845916795065</v>
+      </c>
+      <c r="R10">
+        <v>0.007864488808227425</v>
+      </c>
+      <c r="S10">
+        <v>0.1724137931034484</v>
+      </c>
+      <c r="T10">
+        <v>0.09292811221507881</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="F11">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="G11">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="H11">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="I11">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="J11">
+        <v>0.5272727272727273</v>
+      </c>
+      <c r="K11">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L11">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="M11">
+        <v>0.5573770491803278</v>
+      </c>
+      <c r="N11">
+        <v>0.5811965811965811</v>
+      </c>
+      <c r="O11">
+        <v>0.01530612244897955</v>
+      </c>
+      <c r="P11">
+        <v>0.08196721311475413</v>
+      </c>
+      <c r="Q11">
+        <v>0.05392385392385379</v>
+      </c>
+      <c r="R11">
+        <v>0.02586206896551718</v>
+      </c>
+      <c r="S11">
+        <v>0.1724137931034484</v>
+      </c>
+      <c r="T11">
+        <v>0.1022693781314468</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
         <v>0.3723404255319149</v>
       </c>
-      <c r="E5">
+      <c r="F12">
         <v>0.5737704918032787</v>
       </c>
-      <c r="F5">
+      <c r="G12">
         <v>0.4516129032258064</v>
       </c>
-      <c r="G5">
+      <c r="H12">
         <v>0.3723404255319149</v>
       </c>
-      <c r="H5">
+      <c r="I12">
         <v>0.5737704918032787</v>
       </c>
-      <c r="I5">
+      <c r="J12">
         <v>0.4516129032258064</v>
       </c>
-      <c r="J5">
-        <v>0.1418604651162791</v>
-      </c>
-      <c r="K5">
+      <c r="K12">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L12">
+        <v>0.3859649122807017</v>
+      </c>
+      <c r="M12">
+        <v>0.7213114754098361</v>
+      </c>
+      <c r="N12">
+        <v>0.5028571428571428</v>
+      </c>
+      <c r="O12">
+        <v>0.01362448674878686</v>
+      </c>
+      <c r="P12">
+        <v>0.1475409836065574</v>
+      </c>
+      <c r="Q12">
+        <v>0.0512442396313364</v>
+      </c>
+      <c r="R12">
+        <v>0.03659147869674185</v>
+      </c>
+      <c r="S12">
+        <v>0.2571428571428572</v>
+      </c>
+      <c r="T12">
+        <v>0.113469387755102</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="F13">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="G13">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="H13">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="I13">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="J13">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="K13">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L13">
+        <v>0.3859649122807017</v>
+      </c>
+      <c r="M13">
+        <v>0.7213114754098361</v>
+      </c>
+      <c r="N13">
+        <v>0.5028571428571428</v>
+      </c>
+      <c r="O13">
+        <v>0.01362448674878686</v>
+      </c>
+      <c r="P13">
+        <v>0.1475409836065574</v>
+      </c>
+      <c r="Q13">
+        <v>0.0512442396313364</v>
+      </c>
+      <c r="R13">
+        <v>0.03659147869674185</v>
+      </c>
+      <c r="S13">
+        <v>0.2571428571428572</v>
+      </c>
+      <c r="T13">
+        <v>0.113469387755102</v>
+      </c>
+      <c r="U13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="F14">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="G14">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="H14">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="I14">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="J14">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="K14">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L14">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="M14">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="N14">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1.229175491549281E-16</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="F15">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="G15">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="H15">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="I15">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="J15">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="K15">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L15">
+        <v>0.3925233644859813</v>
+      </c>
+      <c r="M15">
+        <v>0.6885245901639344</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="O15">
+        <v>0.02018293895406642</v>
+      </c>
+      <c r="P15">
+        <v>0.1147540983606558</v>
+      </c>
+      <c r="Q15">
+        <v>0.04838709677419362</v>
+      </c>
+      <c r="R15">
+        <v>0.05420560747663553</v>
+      </c>
+      <c r="S15">
+        <v>0.2</v>
+      </c>
+      <c r="T15">
+        <v>0.1071428571428573</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="F16">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="G16">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="H16">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="I16">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="J16">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="K16">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L16">
+        <v>0.3859649122807017</v>
+      </c>
+      <c r="M16">
+        <v>0.7213114754098361</v>
+      </c>
+      <c r="N16">
+        <v>0.5028571428571428</v>
+      </c>
+      <c r="O16">
+        <v>0.01362448674878686</v>
+      </c>
+      <c r="P16">
+        <v>0.1475409836065574</v>
+      </c>
+      <c r="Q16">
+        <v>0.0512442396313364</v>
+      </c>
+      <c r="R16">
+        <v>0.03659147869674185</v>
+      </c>
+      <c r="S16">
+        <v>0.2571428571428572</v>
+      </c>
+      <c r="T16">
+        <v>0.113469387755102</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="F17">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="G17">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="H17">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="I17">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="J17">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="K17">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L17">
         <v>0.371900826446281</v>
       </c>
-      <c r="L5">
+      <c r="M17">
         <v>0.7377049180327869</v>
       </c>
-      <c r="M5">
+      <c r="N17">
         <v>0.4945054945054945</v>
       </c>
-      <c r="N5">
+      <c r="O17">
         <v>-0.0004395990856339016</v>
       </c>
-      <c r="O5">
+      <c r="P17">
         <v>0.1639344262295083</v>
       </c>
-      <c r="P5">
+      <c r="Q17">
         <v>0.04289259127968809</v>
       </c>
-      <c r="Q5">
+      <c r="R17">
         <v>-0.001180637544273907</v>
       </c>
-      <c r="R5">
+      <c r="S17">
         <v>0.2857142857142859</v>
       </c>
-      <c r="S5">
+      <c r="T17">
         <v>0.09497645211930934</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="F18">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="G18">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="H18">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="I18">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="J18">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="K18">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L18">
+        <v>0.371900826446281</v>
+      </c>
+      <c r="M18">
+        <v>0.7377049180327869</v>
+      </c>
+      <c r="N18">
+        <v>0.4945054945054945</v>
+      </c>
+      <c r="O18">
+        <v>-0.0004395990856339016</v>
+      </c>
+      <c r="P18">
+        <v>0.1639344262295083</v>
+      </c>
+      <c r="Q18">
+        <v>0.04289259127968809</v>
+      </c>
+      <c r="R18">
+        <v>-0.001180637544273907</v>
+      </c>
+      <c r="S18">
+        <v>0.2857142857142859</v>
+      </c>
+      <c r="T18">
+        <v>0.09497645211930934</v>
+      </c>
+      <c r="U18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="F19">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="G19">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="H19">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="I19">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="J19">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="K19">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L19">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="M19">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="N19">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1.229175491549281E-16</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="F20">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="G20">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="H20">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="I20">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="J20">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="K20">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L20">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="M20">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="N20">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1.229175491549281E-16</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="F21">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="G21">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="H21">
+        <v>0.3723404255319149</v>
+      </c>
+      <c r="I21">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="J21">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="K21">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L21">
+        <v>0.371900826446281</v>
+      </c>
+      <c r="M21">
+        <v>0.7377049180327869</v>
+      </c>
+      <c r="N21">
+        <v>0.4945054945054945</v>
+      </c>
+      <c r="O21">
+        <v>-0.0004395990856339016</v>
+      </c>
+      <c r="P21">
+        <v>0.1639344262295083</v>
+      </c>
+      <c r="Q21">
+        <v>0.04289259127968809</v>
+      </c>
+      <c r="R21">
+        <v>-0.001180637544273907</v>
+      </c>
+      <c r="S21">
+        <v>0.2857142857142859</v>
+      </c>
+      <c r="T21">
+        <v>0.09497645211930934</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F22">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G22">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I22">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J22">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K22">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L22">
+        <v>0.6590909090909091</v>
+      </c>
+      <c r="M22">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="N22">
+        <v>0.5523809523809523</v>
+      </c>
+      <c r="O22">
+        <v>0.001948051948051921</v>
+      </c>
+      <c r="P22">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="Q22">
+        <v>0.07321428571428573</v>
+      </c>
+      <c r="R22">
+        <v>0.002964426877470314</v>
+      </c>
+      <c r="S22">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="T22">
+        <v>0.1527950310559007</v>
+      </c>
+      <c r="U22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F23">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G23">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I23">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J23">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K23">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L23">
+        <v>0.6590909090909091</v>
+      </c>
+      <c r="M23">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="N23">
+        <v>0.5523809523809523</v>
+      </c>
+      <c r="O23">
+        <v>0.001948051948051921</v>
+      </c>
+      <c r="P23">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="Q23">
+        <v>0.07321428571428573</v>
+      </c>
+      <c r="R23">
+        <v>0.002964426877470314</v>
+      </c>
+      <c r="S23">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="T23">
+        <v>0.1527950310559007</v>
+      </c>
+      <c r="U23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F24">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G24">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I24">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J24">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K24">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L24">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="M24">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="N24">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1.158493590913207E-16</v>
+      </c>
+      <c r="U24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F25">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G25">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I25">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J25">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K25">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L25">
+        <v>0.6585365853658537</v>
+      </c>
+      <c r="M25">
+        <v>0.4426229508196721</v>
+      </c>
+      <c r="N25">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="O25">
+        <v>0.001393728222996549</v>
+      </c>
+      <c r="P25">
+        <v>0.0655737704918033</v>
+      </c>
+      <c r="Q25">
+        <v>0.05024509803921579</v>
+      </c>
+      <c r="R25">
+        <v>0.002120890774125183</v>
+      </c>
+      <c r="S25">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="T25">
+        <v>0.1048593350383634</v>
+      </c>
+      <c r="U25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F26">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G26">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I26">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J26">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K26">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L26">
+        <v>0.6590909090909091</v>
+      </c>
+      <c r="M26">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="N26">
+        <v>0.5523809523809523</v>
+      </c>
+      <c r="O26">
+        <v>0.001948051948051921</v>
+      </c>
+      <c r="P26">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="Q26">
+        <v>0.07321428571428573</v>
+      </c>
+      <c r="R26">
+        <v>0.002964426877470314</v>
+      </c>
+      <c r="S26">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="T26">
+        <v>0.1527950310559007</v>
+      </c>
+      <c r="U26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F27">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G27">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I27">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J27">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K27">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L27">
+        <v>0.6585365853658537</v>
+      </c>
+      <c r="M27">
+        <v>0.4426229508196721</v>
+      </c>
+      <c r="N27">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="O27">
+        <v>0.001393728222996549</v>
+      </c>
+      <c r="P27">
+        <v>0.0655737704918033</v>
+      </c>
+      <c r="Q27">
+        <v>0.05024509803921579</v>
+      </c>
+      <c r="R27">
+        <v>0.002120890774125183</v>
+      </c>
+      <c r="S27">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="T27">
+        <v>0.1048593350383634</v>
+      </c>
+      <c r="U27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F28">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G28">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I28">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J28">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K28">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L28">
+        <v>0.6585365853658537</v>
+      </c>
+      <c r="M28">
+        <v>0.4426229508196721</v>
+      </c>
+      <c r="N28">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="O28">
+        <v>0.001393728222996549</v>
+      </c>
+      <c r="P28">
+        <v>0.0655737704918033</v>
+      </c>
+      <c r="Q28">
+        <v>0.05024509803921579</v>
+      </c>
+      <c r="R28">
+        <v>0.002120890774125183</v>
+      </c>
+      <c r="S28">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="T28">
+        <v>0.1048593350383634</v>
+      </c>
+      <c r="U28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F29">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G29">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I29">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J29">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K29">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L29">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="M29">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="N29">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>5.551115123125783E-17</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1.158493590913207E-16</v>
+      </c>
+      <c r="U29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F30">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G30">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I30">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J30">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K30">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="N30">
+        <v>0.52</v>
+      </c>
+      <c r="O30">
+        <v>0.00952380952380949</v>
+      </c>
+      <c r="P30">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="Q30">
+        <v>0.04083333333333344</v>
+      </c>
+      <c r="R30">
+        <v>0.01449275362318835</v>
+      </c>
+      <c r="S30">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="T30">
+        <v>0.08521739130434808</v>
+      </c>
+      <c r="U30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="F31">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="G31">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I31">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="J31">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K31">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L31">
+        <v>0.6585365853658537</v>
+      </c>
+      <c r="M31">
+        <v>0.4426229508196721</v>
+      </c>
+      <c r="N31">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="O31">
+        <v>0.001393728222996549</v>
+      </c>
+      <c r="P31">
+        <v>0.0655737704918033</v>
+      </c>
+      <c r="Q31">
+        <v>0.05024509803921579</v>
+      </c>
+      <c r="R31">
+        <v>0.002120890774125183</v>
+      </c>
+      <c r="S31">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="T31">
+        <v>0.1048593350383634</v>
+      </c>
+      <c r="U31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="E6">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="F6">
-        <v>0.4791666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="H6">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="I6">
-        <v>0.4791666666666666</v>
-      </c>
-      <c r="J6">
-        <v>0.1418604651162791</v>
-      </c>
-      <c r="K6">
-        <v>0.6590909090909091</v>
-      </c>
-      <c r="L6">
-        <v>0.4754098360655737</v>
-      </c>
-      <c r="M6">
-        <v>0.5523809523809523</v>
-      </c>
-      <c r="N6">
-        <v>0.001948051948051921</v>
-      </c>
-      <c r="O6">
-        <v>0.09836065573770492</v>
-      </c>
-      <c r="P6">
-        <v>0.07321428571428573</v>
-      </c>
-      <c r="Q6">
-        <v>0.002964426877470314</v>
-      </c>
-      <c r="R6">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="S6">
-        <v>0.1527950310559007</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>0.25</v>
+      </c>
+      <c r="F32">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="G32">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="H32">
+        <v>0.25</v>
+      </c>
+      <c r="I32">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="J32">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="K32">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L32">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="M32">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="N32">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="O32">
+        <v>0.1693548387096774</v>
+      </c>
+      <c r="P32">
+        <v>0.6229508196721312</v>
+      </c>
+      <c r="Q32">
+        <v>0.4757242757242757</v>
+      </c>
+      <c r="R32">
+        <v>0.6774193548387097</v>
+      </c>
+      <c r="S32">
+        <v>38.00000000000005</v>
+      </c>
+      <c r="T32">
+        <v>15.46103896103899</v>
+      </c>
+      <c r="U32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.25</v>
+      </c>
+      <c r="F33">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="G33">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="H33">
+        <v>0.25</v>
+      </c>
+      <c r="I33">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="J33">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="K33">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L33">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="M33">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="N33">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="O33">
+        <v>0.1693548387096774</v>
+      </c>
+      <c r="P33">
+        <v>0.6229508196721312</v>
+      </c>
+      <c r="Q33">
+        <v>0.4757242757242757</v>
+      </c>
+      <c r="R33">
+        <v>0.6774193548387097</v>
+      </c>
+      <c r="S33">
+        <v>38.00000000000005</v>
+      </c>
+      <c r="T33">
+        <v>15.46103896103899</v>
+      </c>
+      <c r="U33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>0.25</v>
+      </c>
+      <c r="F34">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="G34">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="H34">
+        <v>0.25</v>
+      </c>
+      <c r="I34">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="J34">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="K34">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L34">
+        <v>0.5</v>
+      </c>
+      <c r="M34">
+        <v>0.5245901639344263</v>
+      </c>
+      <c r="N34">
+        <v>0.512</v>
+      </c>
+      <c r="O34">
+        <v>0.25</v>
+      </c>
+      <c r="P34">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="Q34">
+        <v>0.4812307692307693</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>31.00000000000004</v>
+      </c>
+      <c r="T34">
+        <v>15.64000000000004</v>
+      </c>
+      <c r="U34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>0.25</v>
+      </c>
+      <c r="F35">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="G35">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="H35">
+        <v>0.25</v>
+      </c>
+      <c r="I35">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="J35">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="K35">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L35">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="M35">
+        <v>0.5901639344262295</v>
+      </c>
+      <c r="N35">
+        <v>0.5255474452554745</v>
+      </c>
+      <c r="O35">
+        <v>0.2236842105263158</v>
+      </c>
+      <c r="P35">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="Q35">
+        <v>0.4947782144862438</v>
+      </c>
+      <c r="R35">
+        <v>0.8947368421052631</v>
+      </c>
+      <c r="S35">
+        <v>35.00000000000004</v>
+      </c>
+      <c r="T35">
+        <v>16.08029197080296</v>
+      </c>
+      <c r="U35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <v>0.25</v>
+      </c>
+      <c r="F36">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="G36">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="H36">
+        <v>0.25</v>
+      </c>
+      <c r="I36">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="J36">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="K36">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L36">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="M36">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="N36">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="O36">
+        <v>0.1693548387096774</v>
+      </c>
+      <c r="P36">
+        <v>0.6229508196721312</v>
+      </c>
+      <c r="Q36">
+        <v>0.4757242757242757</v>
+      </c>
+      <c r="R36">
+        <v>0.6774193548387097</v>
+      </c>
+      <c r="S36">
+        <v>38.00000000000005</v>
+      </c>
+      <c r="T36">
+        <v>15.46103896103899</v>
+      </c>
+      <c r="U36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>0.25</v>
+      </c>
+      <c r="F37">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="G37">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="H37">
+        <v>0.25</v>
+      </c>
+      <c r="I37">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="J37">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="K37">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L37">
+        <v>0.4123711340206185</v>
+      </c>
+      <c r="M37">
+        <v>0.6557377049180327</v>
+      </c>
+      <c r="N37">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="O37">
+        <v>0.1623711340206185</v>
+      </c>
+      <c r="P37">
+        <v>0.6393442622950819</v>
+      </c>
+      <c r="Q37">
+        <v>0.47555988315482</v>
+      </c>
+      <c r="R37">
+        <v>0.6494845360824741</v>
+      </c>
+      <c r="S37">
+        <v>39.00000000000004</v>
+      </c>
+      <c r="T37">
+        <v>15.45569620253168</v>
+      </c>
+      <c r="U37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="E7">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="F7">
-        <v>0.4791666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="H7">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="I7">
-        <v>0.4791666666666666</v>
-      </c>
-      <c r="J7">
-        <v>0.1418604651162791</v>
-      </c>
-      <c r="K7">
-        <v>0.6585365853658537</v>
-      </c>
-      <c r="L7">
-        <v>0.4426229508196721</v>
-      </c>
-      <c r="M7">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="N7">
-        <v>0.001393728222996549</v>
-      </c>
-      <c r="O7">
-        <v>0.0655737704918033</v>
-      </c>
-      <c r="P7">
-        <v>0.05024509803921579</v>
-      </c>
-      <c r="Q7">
-        <v>0.002120890774125183</v>
-      </c>
-      <c r="R7">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="S7">
-        <v>0.1048593350383634</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <v>0.25</v>
+      </c>
+      <c r="F38">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="G38">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="H38">
+        <v>0.25</v>
+      </c>
+      <c r="I38">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="J38">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="K38">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L38">
+        <v>0.25</v>
+      </c>
+      <c r="M38">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="N38">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>2.081668171172169E-17</v>
+      </c>
+      <c r="Q38">
+        <v>6.591949208711867E-17</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1.269817584415024E-15</v>
+      </c>
+      <c r="T38">
+        <v>2.142383492831361E-15</v>
+      </c>
+      <c r="U38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>0.5</v>
+      </c>
+      <c r="E39">
+        <v>0.25</v>
+      </c>
+      <c r="F39">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="G39">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="H39">
+        <v>0.25</v>
+      </c>
+      <c r="I39">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="J39">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="K39">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L39">
+        <v>0.4123711340206185</v>
+      </c>
+      <c r="M39">
+        <v>0.6557377049180327</v>
+      </c>
+      <c r="N39">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="O39">
+        <v>0.1623711340206185</v>
+      </c>
+      <c r="P39">
+        <v>0.6393442622950819</v>
+      </c>
+      <c r="Q39">
+        <v>0.47555988315482</v>
+      </c>
+      <c r="R39">
+        <v>0.6494845360824741</v>
+      </c>
+      <c r="S39">
+        <v>39.00000000000004</v>
+      </c>
+      <c r="T39">
+        <v>15.45569620253168</v>
+      </c>
+      <c r="U39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>0.5</v>
+      </c>
+      <c r="E40">
+        <v>0.25</v>
+      </c>
+      <c r="F40">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="G40">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="H40">
+        <v>0.25</v>
+      </c>
+      <c r="I40">
+        <v>0.0163934426229508</v>
+      </c>
+      <c r="J40">
+        <v>0.0307692307692307</v>
+      </c>
+      <c r="K40">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L40">
+        <v>0.4123711340206185</v>
+      </c>
+      <c r="M40">
+        <v>0.6557377049180327</v>
+      </c>
+      <c r="N40">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="O40">
+        <v>0.1623711340206185</v>
+      </c>
+      <c r="P40">
+        <v>0.6393442622950819</v>
+      </c>
+      <c r="Q40">
+        <v>0.47555988315482</v>
+      </c>
+      <c r="R40">
+        <v>0.6494845360824741</v>
+      </c>
+      <c r="S40">
+        <v>39.00000000000004</v>
+      </c>
+      <c r="T40">
+        <v>15.45569620253168</v>
+      </c>
+      <c r="U40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
         <v>0.25</v>
       </c>
-      <c r="E8">
+      <c r="F41">
         <v>0.0163934426229508</v>
       </c>
-      <c r="F8">
+      <c r="G41">
         <v>0.0307692307692307</v>
       </c>
-      <c r="G8">
+      <c r="H41">
         <v>0.25</v>
       </c>
-      <c r="H8">
+      <c r="I41">
         <v>0.0163934426229508</v>
       </c>
-      <c r="I8">
+      <c r="J41">
         <v>0.0307692307692307</v>
       </c>
-      <c r="J8">
-        <v>0.1418604651162791</v>
-      </c>
-      <c r="K8">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="L8">
-        <v>0.639344262295082</v>
-      </c>
-      <c r="M8">
-        <v>0.5064935064935064</v>
-      </c>
-      <c r="N8">
-        <v>0.1693548387096774</v>
-      </c>
-      <c r="O8">
-        <v>0.6229508196721312</v>
-      </c>
-      <c r="P8">
-        <v>0.4757242757242757</v>
-      </c>
-      <c r="Q8">
-        <v>0.6774193548387097</v>
-      </c>
-      <c r="R8">
-        <v>38.00000000000005</v>
-      </c>
-      <c r="S8">
-        <v>15.46103896103899</v>
-      </c>
-      <c r="T8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>0.25</v>
-      </c>
-      <c r="E9">
-        <v>0.0163934426229508</v>
-      </c>
-      <c r="F9">
-        <v>0.0307692307692307</v>
-      </c>
-      <c r="G9">
-        <v>0.25</v>
-      </c>
-      <c r="H9">
-        <v>0.0163934426229508</v>
-      </c>
-      <c r="I9">
-        <v>0.0307692307692307</v>
-      </c>
-      <c r="J9">
-        <v>0.1418604651162791</v>
-      </c>
-      <c r="K9">
+      <c r="K41">
+        <v>0.1418604651162791</v>
+      </c>
+      <c r="L41">
         <v>0.4123711340206185</v>
       </c>
-      <c r="L9">
+      <c r="M41">
         <v>0.6557377049180327</v>
       </c>
-      <c r="M9">
+      <c r="N41">
         <v>0.5063291139240507</v>
       </c>
-      <c r="N9">
+      <c r="O41">
         <v>0.1623711340206185</v>
       </c>
-      <c r="O9">
+      <c r="P41">
         <v>0.6393442622950819</v>
       </c>
-      <c r="P9">
+      <c r="Q41">
         <v>0.47555988315482</v>
       </c>
-      <c r="Q9">
+      <c r="R41">
         <v>0.6494845360824741</v>
       </c>
-      <c r="R9">
+      <c r="S41">
         <v>39.00000000000004</v>
       </c>
-      <c r="S9">
+      <c r="T41">
         <v>15.45569620253168</v>
       </c>
-      <c r="T9" t="s">
-        <v>29</v>
+      <c r="U41" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
